--- a/Aluminum/6 MONTH/20226/comparison.xlsx
+++ b/Aluminum/6 MONTH/20226/comparison.xlsx
@@ -419,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>13.88</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -430,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>18.1</v>
+        <v>18.09</v>
       </c>
     </row>
   </sheetData>
